--- a/Serie 1/Micros_Parcial2Serie1_AnalisisTiempos_KevinFlores.xlsx
+++ b/Serie 1/Micros_Parcial2Serie1_AnalisisTiempos_KevinFlores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\Carpetas\Archivos de la U\Clases\6to semestre\Microcontroladores\Parcial 2\Micros_Parcial2_KevinFlores\Serie 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9437B50F-FB52-4D1E-BB6C-D12A0DDA5854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84E30BB-7510-4AFD-9F27-EEF64A8EDCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>Celdas ≈ N·log2N; por celda ~2 AND + 1 OR</t>
   </si>
   <si>
-    <t>Comparación con parámetros del video (editables en hoja Inputs)</t>
-  </si>
-  <si>
     <t>t (ns)</t>
   </si>
   <si>
@@ -276,6 +273,9 @@
   </si>
   <si>
     <t xml:space="preserve">Retardo de XOR final </t>
+  </si>
+  <si>
+    <t>Comparación con parámetros</t>
   </si>
 </sst>
 </file>
@@ -283,7 +283,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -469,7 +469,37 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,38 +518,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -844,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
@@ -862,7 +861,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
@@ -874,7 +873,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
@@ -888,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -902,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -916,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -930,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -944,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
@@ -958,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -981,20 +980,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="22"/>
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -1051,20 +1050,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="20"/>
+      <c r="B2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -1170,20 +1169,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
@@ -1268,26 +1267,26 @@
   <cols>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="64.6640625" customWidth="1"/>
+    <col min="7" max="7" width="69.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -1381,7 +1380,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2">
         <f>Inputs!C3 + 2*Inputs!C3</f>
@@ -1447,7 +1446,7 @@
   <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,31 +1456,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>
@@ -1501,14 +1500,14 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5">
         <f>Ripple!C8</f>
         <v>9.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2">
         <f>GateCounts!C6</f>
@@ -1528,14 +1527,14 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <f>CLA_k_blocks!C14</f>
         <v>3.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2">
         <f>GateCounts!C8</f>
@@ -1555,14 +1554,14 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5">
         <f>Prefix!C12</f>
         <v>1.2000000000000002</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2">
         <f>GateCounts!C12</f>
@@ -1594,7 +1593,7 @@
   <dimension ref="B2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1605,158 +1604,144 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
+      <c r="B2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5">
         <f>Compare!C5</f>
         <v>9.6</v>
       </c>
-      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5">
         <f>Compare!C6</f>
         <v>3.3</v>
       </c>
-      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5">
         <f>Compare!C7</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2">
         <f>Compare!E5+Compare!F5+Compare!G5</f>
         <v>160</v>
       </c>
-      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2">
         <f>Compare!E6+Compare!F6+Compare!G6</f>
         <v>336</v>
       </c>
-      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2">
         <f>Compare!E7+Compare!F7+Compare!G7</f>
         <v>576</v>
       </c>
-      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IF(AND(C12&lt;=C13,C12&lt;=C14),"Ripple","CLA (purista)")</f>
         <v>Ripple</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="str">
         <f>IF(AND(C10&lt;=C9,C10&lt;=C8),"Prefix",IF(C9&lt;=C8,"CLA","Ripple"))</f>
         <v>Prefix</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>IF(AND(C9&lt;C8, C13&lt;C14), "CLA", IF(AND(C10&lt;C8, C14&lt;=C13), "Prefix", "Ripple"))</f>
         <v>CLA</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
